--- a/data/trans_orig/P21D5_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D5_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC1D65F6-9EBF-45AD-8F90-C81769DAD1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D5DD3FD-35BB-49B5-9A5E-66939B41B37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0A9EF25A-EA1A-4330-A23A-B3B24FBA582C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E00B6054-4BFE-431A-BD55-6719AAEC2E16}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="263">
-  <si>
-    <t>Población que, necesitandolo, no pudo recibir atención médica mental (psiquiatra) en 2023 (Tasa respuesta: 43,82%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="264">
+  <si>
+    <t>Población que, necesitándolo, no pudo recibir atención médica mental (psiquiatra) en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>97,93%</t>
   </si>
   <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,724 +104,727 @@
     <t>2,07%</t>
   </si>
   <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1236,7 +1239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C680F21-3279-46F0-AB0A-F4DC913C1BB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E12249-09BD-4CF4-A7F5-147C4EF9855F}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1725,7 +1728,7 @@
         <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -1734,13 +1737,13 @@
         <v>3638</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -1749,13 +1752,13 @@
         <v>4580</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,13 +1773,13 @@
         <v>1077</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1785,13 +1788,13 @@
         <v>159</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -1800,13 +1803,13 @@
         <v>1236</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,7 +1865,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1874,13 +1877,13 @@
         <v>94994</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>206</v>
@@ -1889,13 +1892,13 @@
         <v>143920</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>316</v>
@@ -1904,13 +1907,13 @@
         <v>238915</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,13 +1928,13 @@
         <v>1970</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H15" s="7">
         <v>13</v>
@@ -1940,13 +1943,13 @@
         <v>8743</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M15" s="7">
         <v>15</v>
@@ -1955,13 +1958,13 @@
         <v>10713</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,7 +1985,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1991,13 +1994,13 @@
         <v>630</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2006,13 +2009,13 @@
         <v>630</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,13 +2030,13 @@
         <v>700</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2042,13 +2045,13 @@
         <v>1972</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -2057,13 +2060,13 @@
         <v>2672</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,7 +2122,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2131,13 +2134,13 @@
         <v>138208</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>259</v>
@@ -2146,13 +2149,13 @@
         <v>195651</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>381</v>
@@ -2161,13 +2164,13 @@
         <v>333860</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,13 +2185,13 @@
         <v>6410</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -2197,13 +2200,13 @@
         <v>8217</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -2212,13 +2215,13 @@
         <v>14628</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,13 +2236,13 @@
         <v>786</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -2248,13 +2251,13 @@
         <v>3292</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -2263,13 +2266,13 @@
         <v>4078</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,13 +2287,13 @@
         <v>1746</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2305,7 +2308,7 @@
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2314,13 +2317,13 @@
         <v>1746</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,7 +2379,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2388,13 +2391,13 @@
         <v>73103</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H24" s="7">
         <v>147</v>
@@ -2403,13 +2406,13 @@
         <v>70424</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M24" s="7">
         <v>249</v>
@@ -2418,13 +2421,13 @@
         <v>143527</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,13 +2442,13 @@
         <v>3602</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -2454,13 +2457,13 @@
         <v>7628</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -2469,13 +2472,13 @@
         <v>11230</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,13 +2493,13 @@
         <v>1337</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2505,13 +2508,13 @@
         <v>903</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2520,13 +2523,13 @@
         <v>2240</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,7 +2550,7 @@
         <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2556,13 +2559,13 @@
         <v>401</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -2571,13 +2574,13 @@
         <v>401</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,7 +2636,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2645,13 +2648,13 @@
         <v>128178</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="H29" s="7">
         <v>197</v>
@@ -2660,13 +2663,13 @@
         <v>117898</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M29" s="7">
         <v>371</v>
@@ -2675,13 +2678,13 @@
         <v>246075</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2699,13 @@
         <v>1931</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2711,13 +2714,13 @@
         <v>1138</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -2726,13 +2729,13 @@
         <v>3069</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,7 +2756,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2762,13 +2765,13 @@
         <v>374</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2777,13 +2780,13 @@
         <v>374</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,7 +2807,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2819,7 +2822,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2834,7 +2837,7 @@
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,7 +2893,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2902,13 +2905,13 @@
         <v>293465</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H34" s="7">
         <v>409</v>
@@ -2917,13 +2920,13 @@
         <v>308729</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M34" s="7">
         <v>676</v>
@@ -2932,13 +2935,13 @@
         <v>602195</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2956,13 @@
         <v>14978</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H35" s="7">
         <v>20</v>
@@ -2968,13 +2971,13 @@
         <v>13035</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M35" s="7">
         <v>34</v>
@@ -2983,13 +2986,13 @@
         <v>28013</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +3007,13 @@
         <v>3469</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -3019,13 +3022,13 @@
         <v>5293</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="M36" s="7">
         <v>8</v>
@@ -3034,13 +3037,13 @@
         <v>8763</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,7 +3064,7 @@
         <v>32</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -3070,13 +3073,13 @@
         <v>1434</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -3085,13 +3088,13 @@
         <v>1434</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,7 +3150,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3159,28 +3162,28 @@
         <v>347638</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H39" s="7">
         <v>485</v>
       </c>
       <c r="I39" s="7">
-        <v>398416</v>
+        <v>398415</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M39" s="7">
         <v>801</v>
@@ -3189,13 +3192,13 @@
         <v>746054</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3213,13 @@
         <v>65111</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H40" s="7">
         <v>25</v>
@@ -3225,13 +3228,13 @@
         <v>18540</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>221</v>
+        <v>24</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M40" s="7">
         <v>39</v>
@@ -3240,13 +3243,13 @@
         <v>83651</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>223</v>
+        <v>53</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3264,13 @@
         <v>3981</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -3276,7 +3279,7 @@
         <v>1760</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>31</v>
@@ -3291,13 +3294,13 @@
         <v>5741</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>230</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>117</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,7 +3321,7 @@
         <v>32</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -3327,13 +3330,13 @@
         <v>2638</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M42" s="7">
         <v>3</v>
@@ -3342,13 +3345,13 @@
         <v>2638</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>235</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,7 +3378,7 @@
         <v>515</v>
       </c>
       <c r="I43" s="7">
-        <v>421354</v>
+        <v>421353</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>37</v>
@@ -3431,7 +3434,7 @@
         <v>1585375</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>239</v>
@@ -3500,10 +3503,10 @@
         <v>250</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>112</v>
+        <v>251</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,10 +3521,10 @@
         <v>10516</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>252</v>
+        <v>201</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>253</v>
@@ -3536,10 +3539,10 @@
         <v>254</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>117</v>
+        <v>255</v>
       </c>
       <c r="M46" s="7">
         <v>30</v>
@@ -3551,10 +3554,10 @@
         <v>34</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>59</v>
+        <v>256</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,13 +3572,13 @@
         <v>3522</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H47" s="7">
         <v>10</v>
@@ -3584,13 +3587,13 @@
         <v>6605</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M47" s="7">
         <v>14</v>
@@ -3599,13 +3602,13 @@
         <v>10127</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>260</v>
+        <v>68</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,7 +3664,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D5_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D5_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D5DD3FD-35BB-49B5-9A5E-66939B41B37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06A82506-F043-4634-B07D-8F19D9FFFAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E00B6054-4BFE-431A-BD55-6719AAEC2E16}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6BD40FC0-4DE7-44D3-82C9-B9B7DA487FBA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1239,7 +1239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E12249-09BD-4CF4-A7F5-147C4EF9855F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4051A783-4FBD-4D2D-A429-57B81AC019B8}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D5_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D5_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06A82506-F043-4634-B07D-8F19D9FFFAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B83EEB9-6D48-4407-86A6-74816F3CCCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6BD40FC0-4DE7-44D3-82C9-B9B7DA487FBA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{112FB1A5-20C2-4845-9AC6-EB708868EF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="263">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención médica mental (psiquiatra) en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -74,757 +74,754 @@
     <t>97,93%</t>
   </si>
   <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>94,26%</t>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>Sí lo pudo recibir</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>98,62%</t>
   </si>
   <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>Sí lo pudo recibir</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
   </si>
   <si>
     <t>9,98%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>0,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1239,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4051A783-4FBD-4D2D-A429-57B81AC019B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A6B1B8-161F-45FC-BF7A-CA6279EAEC4E}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1728,7 +1725,7 @@
         <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -1737,13 +1734,13 @@
         <v>3638</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -1752,13 +1749,13 @@
         <v>4580</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,13 +1770,13 @@
         <v>1077</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1788,13 +1785,13 @@
         <v>159</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -1803,13 +1800,13 @@
         <v>1236</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,7 +1862,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1877,13 +1874,13 @@
         <v>94994</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>206</v>
@@ -1892,13 +1889,13 @@
         <v>143920</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="M14" s="7">
         <v>316</v>
@@ -1907,13 +1904,13 @@
         <v>238915</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,13 +1925,13 @@
         <v>1970</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H15" s="7">
         <v>13</v>
@@ -1943,13 +1940,13 @@
         <v>8743</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M15" s="7">
         <v>15</v>
@@ -1958,13 +1955,13 @@
         <v>10713</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,7 +1982,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1994,13 +1991,13 @@
         <v>630</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2009,13 +2006,13 @@
         <v>630</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2030,13 +2027,13 @@
         <v>700</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2045,13 +2042,13 @@
         <v>1972</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -2060,13 +2057,13 @@
         <v>2672</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,7 +2119,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2134,13 +2131,13 @@
         <v>138208</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>259</v>
@@ -2149,13 +2146,13 @@
         <v>195651</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>381</v>
@@ -2164,13 +2161,13 @@
         <v>333860</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,13 +2182,13 @@
         <v>6410</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -2200,13 +2197,13 @@
         <v>8217</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -2215,13 +2212,13 @@
         <v>14628</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,13 +2233,13 @@
         <v>786</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -2251,13 +2248,13 @@
         <v>3292</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -2266,13 +2263,13 @@
         <v>4078</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,13 +2284,13 @@
         <v>1746</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2308,7 +2305,7 @@
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2317,13 +2314,13 @@
         <v>1746</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,7 +2376,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2391,13 +2388,13 @@
         <v>73103</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H24" s="7">
         <v>147</v>
@@ -2406,13 +2403,13 @@
         <v>70424</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M24" s="7">
         <v>249</v>
@@ -2421,13 +2418,13 @@
         <v>143527</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2439,13 @@
         <v>3602</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -2457,13 +2454,13 @@
         <v>7628</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -2472,13 +2469,13 @@
         <v>11230</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2490,13 @@
         <v>1337</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2508,13 +2505,13 @@
         <v>903</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2523,13 +2520,13 @@
         <v>2240</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,7 +2547,7 @@
         <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2559,13 +2556,13 @@
         <v>401</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -2574,13 +2571,13 @@
         <v>401</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,7 +2633,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2648,13 +2645,13 @@
         <v>128178</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H29" s="7">
         <v>197</v>
@@ -2663,13 +2660,13 @@
         <v>117898</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M29" s="7">
         <v>371</v>
@@ -2678,13 +2675,13 @@
         <v>246075</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2696,13 @@
         <v>1931</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2714,13 +2711,13 @@
         <v>1138</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -2729,13 +2726,13 @@
         <v>3069</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,7 +2753,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2765,13 +2762,13 @@
         <v>374</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2780,13 +2777,13 @@
         <v>374</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,7 +2804,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2822,7 +2819,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2837,7 +2834,7 @@
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,7 +2890,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2905,13 +2902,13 @@
         <v>293465</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H34" s="7">
         <v>409</v>
@@ -2920,13 +2917,13 @@
         <v>308729</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M34" s="7">
         <v>676</v>
@@ -2935,13 +2932,13 @@
         <v>602195</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2953,13 @@
         <v>14978</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H35" s="7">
         <v>20</v>
@@ -2971,13 +2968,13 @@
         <v>13035</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M35" s="7">
         <v>34</v>
@@ -2986,13 +2983,13 @@
         <v>28013</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +3004,13 @@
         <v>3469</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -3022,13 +3019,13 @@
         <v>5293</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="M36" s="7">
         <v>8</v>
@@ -3037,13 +3034,13 @@
         <v>8763</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,7 +3061,7 @@
         <v>32</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -3073,13 +3070,13 @@
         <v>1434</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -3088,13 +3085,13 @@
         <v>1434</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,7 +3147,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3162,28 +3159,28 @@
         <v>347638</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H39" s="7">
         <v>485</v>
       </c>
       <c r="I39" s="7">
-        <v>398415</v>
+        <v>398416</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M39" s="7">
         <v>801</v>
@@ -3192,13 +3189,13 @@
         <v>746054</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3213,13 +3210,13 @@
         <v>65111</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H40" s="7">
         <v>25</v>
@@ -3228,13 +3225,13 @@
         <v>18540</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>24</v>
+        <v>221</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M40" s="7">
         <v>39</v>
@@ -3243,13 +3240,13 @@
         <v>83651</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3261,13 @@
         <v>3981</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -3279,7 +3276,7 @@
         <v>1760</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>31</v>
@@ -3294,13 +3291,13 @@
         <v>5741</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>230</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>231</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,7 +3318,7 @@
         <v>32</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -3330,13 +3327,13 @@
         <v>2638</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M42" s="7">
         <v>3</v>
@@ -3345,13 +3342,13 @@
         <v>2638</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="P42" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,7 +3375,7 @@
         <v>515</v>
       </c>
       <c r="I43" s="7">
-        <v>421353</v>
+        <v>421354</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>37</v>
@@ -3434,7 +3431,7 @@
         <v>1585375</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>239</v>
@@ -3503,10 +3500,10 @@
         <v>250</v>
       </c>
       <c r="P45" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,10 +3518,10 @@
         <v>10516</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>253</v>
@@ -3539,10 +3536,10 @@
         <v>254</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>22</v>
+        <v>231</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>255</v>
+        <v>117</v>
       </c>
       <c r="M46" s="7">
         <v>30</v>
@@ -3554,10 +3551,10 @@
         <v>34</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>256</v>
+        <v>59</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3569,13 @@
         <v>3522</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H47" s="7">
         <v>10</v>
@@ -3587,13 +3584,13 @@
         <v>6605</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M47" s="7">
         <v>14</v>
@@ -3602,13 +3599,13 @@
         <v>10127</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>68</v>
+        <v>260</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,7 +3661,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D5_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D5_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B83EEB9-6D48-4407-86A6-74816F3CCCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97029D58-DC24-4237-9260-ECCB69A88325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{112FB1A5-20C2-4845-9AC6-EB708868EF2F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8D0B318B-E380-450D-B771-4AAC9BD80D9A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,757 +71,757 @@
     <t>No lo ha necesitado</t>
   </si>
   <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>Sí lo pudo recibir</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
   </si>
   <si>
     <t>94,3%</t>
   </si>
   <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>Sí lo pudo recibir</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
   </si>
   <si>
     <t>4,24%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
   </si>
   <si>
     <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1236,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A6B1B8-161F-45FC-BF7A-CA6279EAEC4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85232722-6CD9-479B-A4D1-0FF619E7D347}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1357,7 +1357,7 @@
         <v>150</v>
       </c>
       <c r="D4" s="7">
-        <v>122896</v>
+        <v>151389</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1372,7 +1372,7 @@
         <v>225</v>
       </c>
       <c r="I4" s="7">
-        <v>114007</v>
+        <v>122618</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1387,7 +1387,7 @@
         <v>375</v>
       </c>
       <c r="N4" s="7">
-        <v>236903</v>
+        <v>274007</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1408,7 +1408,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>2596</v>
+        <v>2877</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1423,7 +1423,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>3516</v>
+        <v>3699</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1438,7 +1438,7 @@
         <v>11</v>
       </c>
       <c r="N5" s="7">
-        <v>6112</v>
+        <v>6576</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1561,7 +1561,7 @@
         <v>153</v>
       </c>
       <c r="D8" s="7">
-        <v>125492</v>
+        <v>154266</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>37</v>
@@ -1576,7 +1576,7 @@
         <v>233</v>
       </c>
       <c r="I8" s="7">
-        <v>117523</v>
+        <v>126317</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>37</v>
@@ -1591,7 +1591,7 @@
         <v>386</v>
       </c>
       <c r="N8" s="7">
-        <v>243015</v>
+        <v>280583</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>37</v>
@@ -1614,7 +1614,7 @@
         <v>147</v>
       </c>
       <c r="D9" s="7">
-        <v>190176</v>
+        <v>189840</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>39</v>
@@ -1629,7 +1629,7 @@
         <v>302</v>
       </c>
       <c r="I9" s="7">
-        <v>236330</v>
+        <v>219839</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>42</v>
@@ -1644,7 +1644,7 @@
         <v>449</v>
       </c>
       <c r="N9" s="7">
-        <v>426506</v>
+        <v>409679</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>45</v>
@@ -1665,7 +1665,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>19078</v>
+        <v>19552</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>48</v>
@@ -1680,7 +1680,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>13846</v>
+        <v>12779</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>51</v>
@@ -1695,7 +1695,7 @@
         <v>27</v>
       </c>
       <c r="N10" s="7">
-        <v>32924</v>
+        <v>32331</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>54</v>
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>942</v>
+        <v>877</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>57</v>
@@ -1725,37 +1725,37 @@
         <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>3638</v>
+        <v>3354</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>4580</v>
+        <v>4230</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,46 +1767,46 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>1077</v>
+        <v>1004</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>1236</v>
+        <v>1165</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,7 +1833,7 @@
         <v>324</v>
       </c>
       <c r="I13" s="7">
-        <v>253973</v>
+        <v>236133</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>37</v>
@@ -1848,7 +1848,7 @@
         <v>484</v>
       </c>
       <c r="N13" s="7">
-        <v>465246</v>
+        <v>447406</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>37</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1871,46 +1871,46 @@
         <v>110</v>
       </c>
       <c r="D14" s="7">
-        <v>94994</v>
+        <v>92281</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>206</v>
       </c>
       <c r="I14" s="7">
-        <v>143920</v>
+        <v>135006</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>316</v>
       </c>
       <c r="N14" s="7">
-        <v>238915</v>
+        <v>227287</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,46 +1922,46 @@
         <v>2</v>
       </c>
       <c r="D15" s="7">
-        <v>1970</v>
+        <v>1938</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H15" s="7">
         <v>13</v>
       </c>
       <c r="I15" s="7">
-        <v>8743</v>
+        <v>8130</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M15" s="7">
         <v>15</v>
       </c>
       <c r="N15" s="7">
-        <v>10713</v>
+        <v>10068</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,37 +1982,37 @@
         <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>630</v>
+        <v>573</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>630</v>
+        <v>573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2024,46 +2024,46 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>1972</v>
+        <v>1833</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>2672</v>
+        <v>2525</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,7 +2075,7 @@
         <v>113</v>
       </c>
       <c r="D18" s="7">
-        <v>97664</v>
+        <v>94912</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>37</v>
@@ -2090,7 +2090,7 @@
         <v>223</v>
       </c>
       <c r="I18" s="7">
-        <v>155266</v>
+        <v>145541</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>37</v>
@@ -2105,7 +2105,7 @@
         <v>336</v>
       </c>
       <c r="N18" s="7">
-        <v>252930</v>
+        <v>240453</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>37</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2128,46 +2128,46 @@
         <v>122</v>
       </c>
       <c r="D19" s="7">
-        <v>138208</v>
+        <v>132676</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>259</v>
       </c>
       <c r="I19" s="7">
-        <v>195651</v>
+        <v>235921</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>381</v>
       </c>
       <c r="N19" s="7">
-        <v>333860</v>
+        <v>368597</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,46 +2179,46 @@
         <v>6</v>
       </c>
       <c r="D20" s="7">
-        <v>6410</v>
+        <v>6267</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
       </c>
       <c r="I20" s="7">
-        <v>8217</v>
+        <v>7561</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
       </c>
       <c r="N20" s="7">
-        <v>14628</v>
+        <v>13828</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,46 +2230,46 @@
         <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>786</v>
+        <v>750</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
       </c>
       <c r="I21" s="7">
-        <v>3292</v>
+        <v>3078</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
       </c>
       <c r="N21" s="7">
-        <v>4078</v>
+        <v>3828</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,16 +2281,16 @@
         <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>1746</v>
+        <v>1684</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2305,22 +2305,22 @@
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>1746</v>
+        <v>1684</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2332,7 @@
         <v>131</v>
       </c>
       <c r="D23" s="7">
-        <v>147150</v>
+        <v>141377</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>37</v>
@@ -2347,7 +2347,7 @@
         <v>278</v>
       </c>
       <c r="I23" s="7">
-        <v>207161</v>
+        <v>246560</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>37</v>
@@ -2362,7 +2362,7 @@
         <v>409</v>
       </c>
       <c r="N23" s="7">
-        <v>354311</v>
+        <v>387937</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>37</v>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2385,46 +2385,46 @@
         <v>102</v>
       </c>
       <c r="D24" s="7">
-        <v>73103</v>
+        <v>66259</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H24" s="7">
         <v>147</v>
       </c>
       <c r="I24" s="7">
-        <v>70424</v>
+        <v>63545</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M24" s="7">
         <v>249</v>
       </c>
       <c r="N24" s="7">
-        <v>143527</v>
+        <v>129803</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,46 +2436,46 @@
         <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>3602</v>
+        <v>3246</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
       </c>
       <c r="I25" s="7">
-        <v>7628</v>
+        <v>6628</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
       </c>
       <c r="N25" s="7">
-        <v>11230</v>
+        <v>9874</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,46 +2487,46 @@
         <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>1337</v>
+        <v>1199</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>903</v>
+        <v>825</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>2240</v>
+        <v>2025</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,37 +2547,37 @@
         <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
       </c>
       <c r="I27" s="7">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
       </c>
       <c r="N27" s="7">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,7 +2589,7 @@
         <v>108</v>
       </c>
       <c r="D28" s="7">
-        <v>78042</v>
+        <v>70704</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>37</v>
@@ -2604,7 +2604,7 @@
         <v>163</v>
       </c>
       <c r="I28" s="7">
-        <v>79356</v>
+        <v>71362</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>37</v>
@@ -2619,7 +2619,7 @@
         <v>271</v>
       </c>
       <c r="N28" s="7">
-        <v>157398</v>
+        <v>142066</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>37</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2642,46 +2642,46 @@
         <v>174</v>
       </c>
       <c r="D29" s="7">
-        <v>128178</v>
+        <v>123755</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H29" s="7">
         <v>197</v>
       </c>
       <c r="I29" s="7">
-        <v>117898</v>
+        <v>109554</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M29" s="7">
         <v>371</v>
       </c>
       <c r="N29" s="7">
-        <v>246075</v>
+        <v>233309</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>163</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,46 +2693,46 @@
         <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>1931</v>
+        <v>1839</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
       </c>
       <c r="I30" s="7">
-        <v>1138</v>
+        <v>1047</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
       </c>
       <c r="N30" s="7">
-        <v>3069</v>
+        <v>2886</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,37 +2753,37 @@
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,7 +2804,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,7 +2846,7 @@
         <v>177</v>
       </c>
       <c r="D33" s="7">
-        <v>130109</v>
+        <v>125594</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>37</v>
@@ -2861,7 +2861,7 @@
         <v>200</v>
       </c>
       <c r="I33" s="7">
-        <v>119410</v>
+        <v>110952</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>37</v>
@@ -2876,7 +2876,7 @@
         <v>377</v>
       </c>
       <c r="N33" s="7">
-        <v>249518</v>
+        <v>236546</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>37</v>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2899,46 +2899,46 @@
         <v>267</v>
       </c>
       <c r="D34" s="7">
-        <v>293465</v>
+        <v>293206</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H34" s="7">
         <v>409</v>
       </c>
       <c r="I34" s="7">
-        <v>308729</v>
+        <v>288223</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M34" s="7">
         <v>676</v>
       </c>
       <c r="N34" s="7">
-        <v>602195</v>
+        <v>581429</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,25 +2950,25 @@
         <v>14</v>
       </c>
       <c r="D35" s="7">
-        <v>14978</v>
+        <v>14869</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H35" s="7">
         <v>20</v>
       </c>
       <c r="I35" s="7">
-        <v>13035</v>
+        <v>12189</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>189</v>
@@ -2980,13 +2980,13 @@
         <v>34</v>
       </c>
       <c r="N35" s="7">
-        <v>28013</v>
+        <v>27058</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>192</v>
@@ -3001,7 +3001,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="7">
-        <v>3469</v>
+        <v>3497</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>193</v>
@@ -3016,7 +3016,7 @@
         <v>5</v>
       </c>
       <c r="I36" s="7">
-        <v>5293</v>
+        <v>5104</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>196</v>
@@ -3031,7 +3031,7 @@
         <v>8</v>
       </c>
       <c r="N36" s="7">
-        <v>8763</v>
+        <v>8601</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>199</v>
@@ -3061,37 +3061,37 @@
         <v>32</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
       </c>
       <c r="I37" s="7">
-        <v>1434</v>
+        <v>1338</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
       </c>
       <c r="N37" s="7">
-        <v>1434</v>
+        <v>1338</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,7 +3103,7 @@
         <v>284</v>
       </c>
       <c r="D38" s="7">
-        <v>311912</v>
+        <v>311572</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>37</v>
@@ -3118,7 +3118,7 @@
         <v>436</v>
       </c>
       <c r="I38" s="7">
-        <v>328491</v>
+        <v>306854</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>37</v>
@@ -3133,7 +3133,7 @@
         <v>720</v>
       </c>
       <c r="N38" s="7">
-        <v>640404</v>
+        <v>618426</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>37</v>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3156,46 +3156,46 @@
         <v>316</v>
       </c>
       <c r="D39" s="7">
-        <v>347638</v>
+        <v>294277</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="H39" s="7">
         <v>485</v>
       </c>
       <c r="I39" s="7">
-        <v>398416</v>
+        <v>329228</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M39" s="7">
         <v>801</v>
       </c>
       <c r="N39" s="7">
-        <v>746054</v>
+        <v>623504</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,46 +3207,46 @@
         <v>14</v>
       </c>
       <c r="D40" s="7">
-        <v>65111</v>
+        <v>256287</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H40" s="7">
         <v>25</v>
       </c>
       <c r="I40" s="7">
-        <v>18540</v>
+        <v>15464</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M40" s="7">
         <v>39</v>
       </c>
       <c r="N40" s="7">
-        <v>83651</v>
+        <v>271751</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,46 +3258,46 @@
         <v>3</v>
       </c>
       <c r="D41" s="7">
-        <v>3981</v>
+        <v>3352</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
       </c>
       <c r="I41" s="7">
-        <v>1760</v>
+        <v>1379</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
       </c>
       <c r="N41" s="7">
-        <v>5741</v>
+        <v>4732</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>117</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,37 +3318,37 @@
         <v>32</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
       </c>
       <c r="I42" s="7">
-        <v>2638</v>
+        <v>2243</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="M42" s="7">
         <v>3</v>
       </c>
       <c r="N42" s="7">
-        <v>2638</v>
+        <v>2243</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,7 +3360,7 @@
         <v>333</v>
       </c>
       <c r="D43" s="7">
-        <v>416730</v>
+        <v>553916</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>37</v>
@@ -3375,7 +3375,7 @@
         <v>515</v>
       </c>
       <c r="I43" s="7">
-        <v>421354</v>
+        <v>348315</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>37</v>
@@ -3390,7 +3390,7 @@
         <v>848</v>
       </c>
       <c r="N43" s="7">
-        <v>838084</v>
+        <v>902230</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>37</v>
@@ -3413,46 +3413,46 @@
         <v>1388</v>
       </c>
       <c r="D44" s="7">
-        <v>1388659</v>
+        <v>1343683</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H44" s="7">
         <v>2230</v>
       </c>
       <c r="I44" s="7">
-        <v>1585375</v>
+        <v>1503933</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>104</v>
+        <v>235</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M44" s="7">
         <v>3618</v>
       </c>
       <c r="N44" s="7">
-        <v>2974034</v>
+        <v>2847617</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,46 +3464,46 @@
         <v>57</v>
       </c>
       <c r="D45" s="7">
-        <v>115675</v>
+        <v>306874</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>245</v>
+        <v>151</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H45" s="7">
         <v>112</v>
       </c>
       <c r="I45" s="7">
-        <v>74664</v>
+        <v>67498</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M45" s="7">
         <v>169</v>
       </c>
       <c r="N45" s="7">
-        <v>190339</v>
+        <v>374372</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>112</v>
+        <v>247</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,46 +3515,46 @@
         <v>10</v>
       </c>
       <c r="D46" s="7">
-        <v>10516</v>
+        <v>9676</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H46" s="7">
         <v>20</v>
       </c>
       <c r="I46" s="7">
-        <v>15891</v>
+        <v>14665</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>117</v>
+        <v>252</v>
       </c>
       <c r="M46" s="7">
         <v>30</v>
       </c>
       <c r="N46" s="7">
-        <v>26406</v>
+        <v>24340</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>59</v>
+        <v>254</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,46 +3566,46 @@
         <v>4</v>
       </c>
       <c r="D47" s="7">
-        <v>3522</v>
+        <v>3381</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H47" s="7">
         <v>10</v>
       </c>
       <c r="I47" s="7">
-        <v>6605</v>
+        <v>5938</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>258</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>259</v>
+        <v>94</v>
       </c>
       <c r="M47" s="7">
         <v>14</v>
       </c>
       <c r="N47" s="7">
-        <v>10127</v>
+        <v>9319</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,7 +3617,7 @@
         <v>1459</v>
       </c>
       <c r="D48" s="7">
-        <v>1518372</v>
+        <v>1663614</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>37</v>
@@ -3632,7 +3632,7 @@
         <v>2372</v>
       </c>
       <c r="I48" s="7">
-        <v>1682534</v>
+        <v>1592034</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>37</v>
@@ -3647,7 +3647,7 @@
         <v>3831</v>
       </c>
       <c r="N48" s="7">
-        <v>3200906</v>
+        <v>3255648</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>37</v>
